--- a/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
+++ b/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BBE5E-8784-4176-A958-2A889A23624E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262AA22A-8C2C-4E5D-A236-75949FFA9452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="ISS reports summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Italy cases by symptom onset da" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,16 +39,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>cum inc. by onset</t>
-  </si>
-  <si>
-    <t>cum. incid. By diagn.</t>
-  </si>
-  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>reported</t>
   </si>
   <si>
     <t>blu bar</t>
@@ -97,6 +88,15 @@
   </si>
   <si>
     <t>val. max</t>
+  </si>
+  <si>
+    <t>cumulative incidence of cases w/ diagnosis/swab date</t>
+  </si>
+  <si>
+    <t>total cases reported</t>
+  </si>
+  <si>
+    <t>cumulative incidence of cases w/ symptom onset date</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,12 +402,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +425,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
@@ -441,7 +447,16 @@
     <cellStyle name="Nota" xfId="5" builtinId="10"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -493,6 +508,1306 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="it-IT" sz="1200"/>
+              <a:t>Total cases w/ reported symptom onset or diagnosis date. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="800"/>
+              <a:t>Source: ISS.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISS reports summary'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative incidence of cases w/ symptom onset date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$C$1:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31959</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57951</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60313</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63084</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71354</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77927</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77878</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81792</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82648</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83817</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86392</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87954</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97568</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109766</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>118063</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125629</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>125955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B39-4199-8E56-62BCFF642BC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISS reports summary'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative incidence of cases w/ diagnosis/swab date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$D$1:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107342</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>111692</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116363</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120570</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>131995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>133700</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>139347</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>142425</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146233</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>151212</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155133</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>157904</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>165282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>169779</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>173325</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>179451</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>193301</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>195715</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>201077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B39-4199-8E56-62BCFF642BC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISS reports summary'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total cases reported</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$E$1:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35731</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73780</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94312</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117050</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124527</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127790</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>131751</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136110</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>139377</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>143199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>146321</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150189</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155467</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159107</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>162004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>169325</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173730</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>177143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>183269</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>197096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>199470</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>204576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B39-4199-8E56-62BCFF642BC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="730057272"/>
+        <c:axId val="730055352"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="730057272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730055352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="730055352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730057272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="it-IT"/>
               <a:t>Cases by symptom onset date from 24-jan to 16-apr 2020.</a:t>
             </a:r>
@@ -502,7 +1817,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" sz="900"/>
-              <a:t>Source: ISS*</a:t>
+              <a:t>Source: ISS*.</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -580,7 +1895,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$A$2:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="84"/>
@@ -841,7 +2156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$B$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$B$2:$B$85</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -865,7 +2180,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$A$2:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="84"/>
@@ -1126,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$2:$C$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$C$2:$C$85</c:f>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1169,7 +2484,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$A$2:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="84"/>
@@ -1430,7 +2745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$2:$D$85</c:f>
+              <c:f>'Italy cases by symptom onset da'!$D$2:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
@@ -1906,7 +3221,568 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2411,309 +4287,40 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>24016</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46382</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>914399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>519764</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78100581-17B6-4147-9EBD-9516692F3F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25AF017-66FB-482B-B098-FE80B568B429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5510416" y="942108"/>
-          <a:ext cx="32194948" cy="19091564"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>180801</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>348441</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4156</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Immagine 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72990790-D743-4274-AD4F-0EE210B6929D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19688001" y="3796146"/>
-          <a:ext cx="1386840" cy="962890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>332510</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>149630</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>148243</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Immagine 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD87E99-B4BC-4AAA-8F4A-CF6E1B40D217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19230110" y="5107478"/>
-          <a:ext cx="1645920" cy="1164474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>492386</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>215438</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>126482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Immagine 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EB2DF5-23A9-4EB3-BB78-67111FC0DB98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="21218786" y="5292436"/>
-          <a:ext cx="1551852" cy="1137864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>100446</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>391538</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44169</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Immagine 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B2A31D-E94B-4F6B-A382-72A0C9A2F35D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20217246" y="6719454"/>
-          <a:ext cx="2119892" cy="1609733"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2747,8 +4354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4606314" y="2474421"/>
-          <a:ext cx="8146794" cy="5619795"/>
+          <a:off x="4609574" y="2467086"/>
+          <a:ext cx="8142719" cy="5594531"/>
           <a:chOff x="4610470" y="2331719"/>
           <a:chExt cx="8137789" cy="5705693"/>
         </a:xfrm>
@@ -2840,14 +4447,171 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21474</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Gruppo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94AFB92-EB4C-4D16-844E-FC16861296D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4638298" y="8678650"/>
+          <a:ext cx="8120923" cy="5448097"/>
+          <a:chOff x="4635038" y="8589818"/>
+          <a:chExt cx="8124998" cy="5472546"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Immagine 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAFF9D6-6CF8-4370-9BA3-FCE74C01A742}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4635038" y="8589818"/>
+            <a:ext cx="8124998" cy="5472546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rettangolo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA432CFE-3587-499E-8326-6F1312702DD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19310932">
+            <a:off x="5284195" y="10829568"/>
+            <a:ext cx="6735947" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="it-IT" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="22225">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Digitizer example page</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:E58" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0FFB908C-7659-4CD2-8432-2A43ADA8C6A3}" name="cumulative incidence of cases w/ symptom onset date"/>
+    <tableColumn id="4" xr3:uid="{38E7B481-A1FE-4FD4-90F3-A4C1650D179E}" name="cumulative incidence of cases w/ diagnosis/swab date"/>
+    <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="total cases reported"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE3F84B0-9E13-40FB-8945-D170D5479F84}" name="Tabella1" displayName="Tabella1" ref="A1:D103" totalsRowShown="0">
   <autoFilter ref="A1:D103" xr:uid="{30C6CF1A-8735-45FE-91D3-50981F887C61}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{09017B8E-30AA-429C-B1AB-948F0E58CFCC}" name="blu bar"/>
     <tableColumn id="3" xr3:uid="{8BD48CA4-777F-4F23-8FE1-E8190553CFAF}" name="Colonna1"/>
     <tableColumn id="4" xr3:uid="{7ABC133C-83F3-4CCA-A2D9-65E59601BFED}" name="N. cases by symptom onset"/>
@@ -3119,32 +4883,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43899</v>
       </c>
@@ -3154,14 +4921,14 @@
       <c r="C2">
         <v>4555</v>
       </c>
+      <c r="D2">
+        <v>7812</v>
+      </c>
       <c r="E2">
-        <v>7812</v>
-      </c>
-      <c r="G2">
         <v>8342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43900</v>
       </c>
@@ -3169,7 +4936,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43901</v>
       </c>
@@ -3177,7 +4944,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -3187,14 +4954,14 @@
       <c r="C5">
         <v>8331</v>
       </c>
+      <c r="D5">
+        <v>13323</v>
+      </c>
       <c r="E5">
-        <v>13323</v>
-      </c>
-      <c r="G5">
         <v>13882</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43903</v>
       </c>
@@ -3202,7 +4969,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43904</v>
       </c>
@@ -3210,7 +4977,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43905</v>
       </c>
@@ -3218,7 +4985,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43906</v>
       </c>
@@ -3226,7 +4993,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43907</v>
       </c>
@@ -3236,14 +5003,14 @@
       <c r="C10">
         <v>16181</v>
       </c>
+      <c r="D10">
+        <v>27224</v>
+      </c>
       <c r="E10">
-        <v>27224</v>
-      </c>
-      <c r="G10">
         <v>28293</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43908</v>
       </c>
@@ -3253,14 +5020,14 @@
       <c r="C11">
         <v>17389</v>
       </c>
+      <c r="D11">
+        <v>30722</v>
+      </c>
       <c r="E11">
-        <v>30722</v>
-      </c>
-      <c r="G11">
         <v>31772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43909</v>
       </c>
@@ -3270,14 +5037,14 @@
       <c r="C12">
         <v>18966</v>
       </c>
+      <c r="D12">
+        <v>34927</v>
+      </c>
       <c r="E12">
-        <v>34927</v>
-      </c>
-      <c r="G12">
         <v>35731</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43910</v>
       </c>
@@ -3287,14 +5054,14 @@
       <c r="C13">
         <v>21157</v>
       </c>
+      <c r="D13">
+        <v>39981</v>
+      </c>
       <c r="E13">
-        <v>39981</v>
-      </c>
-      <c r="G13">
         <v>42220</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43911</v>
       </c>
@@ -3304,14 +5071,14 @@
       <c r="C14">
         <v>22993</v>
       </c>
+      <c r="D14">
+        <v>46584</v>
+      </c>
       <c r="E14">
-        <v>46584</v>
-      </c>
-      <c r="G14">
         <v>48452</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43912</v>
       </c>
@@ -3321,14 +5088,14 @@
       <c r="C15">
         <v>28330</v>
       </c>
+      <c r="D15">
+        <v>50246</v>
+      </c>
       <c r="E15">
-        <v>50246</v>
-      </c>
-      <c r="G15">
         <v>52796</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43913</v>
       </c>
@@ -3338,14 +5105,14 @@
       <c r="C16">
         <v>29603</v>
       </c>
+      <c r="D16">
+        <v>55059</v>
+      </c>
       <c r="E16">
-        <v>55059</v>
-      </c>
-      <c r="G16">
         <v>57989</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43914</v>
       </c>
@@ -3355,14 +5122,14 @@
       <c r="C17">
         <v>31959</v>
       </c>
+      <c r="D17">
+        <v>59203</v>
+      </c>
       <c r="E17">
-        <v>59203</v>
-      </c>
-      <c r="G17">
         <v>62844</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43915</v>
       </c>
@@ -3372,14 +5139,14 @@
       <c r="C18">
         <v>34371</v>
       </c>
+      <c r="D18">
+        <v>64130</v>
+      </c>
       <c r="E18">
-        <v>64130</v>
-      </c>
-      <c r="G18">
         <v>67814</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43916</v>
       </c>
@@ -3389,14 +5156,14 @@
       <c r="C19">
         <v>37403</v>
       </c>
+      <c r="D19">
+        <v>70418</v>
+      </c>
       <c r="E19">
-        <v>70418</v>
-      </c>
-      <c r="G19">
         <v>73780</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43917</v>
       </c>
@@ -3406,14 +5173,14 @@
       <c r="C20">
         <v>44204</v>
       </c>
+      <c r="D20">
+        <v>76714</v>
+      </c>
       <c r="E20">
-        <v>76714</v>
-      </c>
-      <c r="G20">
         <v>79968</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43918</v>
       </c>
@@ -3423,14 +5190,14 @@
       <c r="C21">
         <v>46704</v>
       </c>
+      <c r="D21">
+        <v>82510</v>
+      </c>
       <c r="E21">
-        <v>82510</v>
-      </c>
-      <c r="G21">
         <v>85308</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43919</v>
       </c>
@@ -3440,14 +5207,14 @@
       <c r="C22">
         <v>48525</v>
       </c>
+      <c r="D22">
+        <v>87038</v>
+      </c>
       <c r="E22">
-        <v>87038</v>
-      </c>
-      <c r="G22">
         <v>89967</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43920</v>
       </c>
@@ -3457,14 +5224,14 @@
       <c r="C23">
         <v>53084</v>
       </c>
+      <c r="D23">
+        <v>90972</v>
+      </c>
       <c r="E23">
-        <v>90972</v>
-      </c>
-      <c r="G23">
         <v>94312</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43921</v>
       </c>
@@ -3474,14 +5241,14 @@
       <c r="C24">
         <v>55280</v>
       </c>
+      <c r="D24">
+        <v>95077</v>
+      </c>
       <c r="E24">
-        <v>95077</v>
-      </c>
-      <c r="G24">
         <v>98716</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43922</v>
       </c>
@@ -3491,14 +5258,14 @@
       <c r="C25">
         <v>57951</v>
       </c>
+      <c r="D25">
+        <v>98500</v>
+      </c>
       <c r="E25">
-        <v>98500</v>
-      </c>
-      <c r="G25">
         <v>102669</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43923</v>
       </c>
@@ -3508,14 +5275,14 @@
       <c r="C26">
         <v>60313</v>
       </c>
+      <c r="D26">
+        <v>101994</v>
+      </c>
       <c r="E26">
-        <v>101994</v>
-      </c>
-      <c r="G26">
         <v>106399</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43924</v>
       </c>
@@ -3525,14 +5292,14 @@
       <c r="C27">
         <v>63084</v>
       </c>
+      <c r="D27">
+        <v>107342</v>
+      </c>
       <c r="E27">
-        <v>107342</v>
-      </c>
-      <c r="G27">
         <v>112401</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43925</v>
       </c>
@@ -3542,14 +5309,14 @@
       <c r="C28">
         <v>65145</v>
       </c>
+      <c r="D28">
+        <v>111692</v>
+      </c>
       <c r="E28">
-        <v>111692</v>
-      </c>
-      <c r="G28">
         <v>117050</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43926</v>
       </c>
@@ -3559,14 +5326,14 @@
       <c r="C29">
         <v>70012</v>
       </c>
+      <c r="D29">
+        <v>116363</v>
+      </c>
       <c r="E29">
-        <v>116363</v>
-      </c>
-      <c r="G29">
         <v>120290</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43927</v>
       </c>
@@ -3576,14 +5343,14 @@
       <c r="C30">
         <v>71354</v>
       </c>
+      <c r="D30">
+        <v>120570</v>
+      </c>
       <c r="E30">
-        <v>120570</v>
-      </c>
-      <c r="G30">
         <v>124527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43928</v>
       </c>
@@ -3593,14 +5360,14 @@
       <c r="C31">
         <v>73040</v>
       </c>
+      <c r="D31">
+        <v>123801</v>
+      </c>
       <c r="E31">
-        <v>123801</v>
-      </c>
-      <c r="G31">
         <v>127790</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43929</v>
       </c>
@@ -3610,14 +5377,14 @@
       <c r="C32">
         <v>75897</v>
       </c>
+      <c r="D32">
+        <v>127642</v>
+      </c>
       <c r="E32">
-        <v>127642</v>
-      </c>
-      <c r="G32">
         <v>131751</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43930</v>
       </c>
@@ -3627,14 +5394,14 @@
       <c r="C33">
         <v>77927</v>
       </c>
+      <c r="D33">
+        <v>131995</v>
+      </c>
       <c r="E33">
-        <v>131995</v>
-      </c>
-      <c r="G33">
         <v>136110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43931</v>
       </c>
@@ -3644,14 +5411,14 @@
       <c r="C34">
         <v>77878</v>
       </c>
+      <c r="D34">
+        <v>133700</v>
+      </c>
       <c r="E34">
-        <v>133700</v>
-      </c>
-      <c r="G34">
         <v>139377</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43932</v>
       </c>
@@ -3661,14 +5428,14 @@
       <c r="C35">
         <v>81792</v>
       </c>
+      <c r="D35">
+        <v>139347</v>
+      </c>
       <c r="E35">
-        <v>139347</v>
-      </c>
-      <c r="G35">
         <v>143199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43933</v>
       </c>
@@ -3678,14 +5445,14 @@
       <c r="C36">
         <v>82648</v>
       </c>
+      <c r="D36">
+        <v>142425</v>
+      </c>
       <c r="E36">
-        <v>142425</v>
-      </c>
-      <c r="G36">
         <v>146321</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43934</v>
       </c>
@@ -3695,14 +5462,14 @@
       <c r="C37">
         <v>83817</v>
       </c>
+      <c r="D37">
+        <v>146233</v>
+      </c>
       <c r="E37">
-        <v>146233</v>
-      </c>
-      <c r="G37">
         <v>150189</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43935</v>
       </c>
@@ -3710,7 +5477,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43936</v>
       </c>
@@ -3720,14 +5487,14 @@
       <c r="C39">
         <v>86392</v>
       </c>
+      <c r="D39">
+        <v>151212</v>
+      </c>
       <c r="E39">
-        <v>151212</v>
-      </c>
-      <c r="G39">
         <v>155467</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43937</v>
       </c>
@@ -3737,14 +5504,14 @@
       <c r="C40">
         <v>87954</v>
       </c>
+      <c r="D40">
+        <v>155133</v>
+      </c>
       <c r="E40">
-        <v>155133</v>
-      </c>
-      <c r="G40">
         <v>159107</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43938</v>
       </c>
@@ -3754,14 +5521,14 @@
       <c r="C41">
         <v>90191</v>
       </c>
+      <c r="D41">
+        <v>157904</v>
+      </c>
       <c r="E41">
-        <v>157904</v>
-      </c>
-      <c r="G41">
         <v>162004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43939</v>
       </c>
@@ -3769,7 +5536,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43940</v>
       </c>
@@ -3777,7 +5544,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43941</v>
       </c>
@@ -3787,14 +5554,14 @@
       <c r="C44">
         <v>93188</v>
       </c>
+      <c r="D44">
+        <v>165282</v>
+      </c>
       <c r="E44">
-        <v>165282</v>
-      </c>
-      <c r="G44">
         <v>169325</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43942</v>
       </c>
@@ -3802,7 +5569,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43943</v>
       </c>
@@ -3812,14 +5579,14 @@
       <c r="C46">
         <v>95815</v>
       </c>
+      <c r="D46">
+        <v>169779</v>
+      </c>
       <c r="E46">
-        <v>169779</v>
-      </c>
-      <c r="G46">
         <v>173730</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43944</v>
       </c>
@@ -3829,14 +5596,14 @@
       <c r="C47">
         <v>97568</v>
       </c>
+      <c r="D47">
+        <v>173325</v>
+      </c>
       <c r="E47">
-        <v>173325</v>
-      </c>
-      <c r="G47">
         <v>177143</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43945</v>
       </c>
@@ -3846,14 +5613,14 @@
       <c r="C48">
         <v>109766</v>
       </c>
+      <c r="D48">
+        <v>179451</v>
+      </c>
       <c r="E48">
-        <v>179451</v>
-      </c>
-      <c r="G48">
         <v>183269</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43946</v>
       </c>
@@ -3861,7 +5628,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43947</v>
       </c>
@@ -3869,7 +5636,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43948</v>
       </c>
@@ -3879,14 +5646,14 @@
       <c r="C51">
         <v>118063</v>
       </c>
+      <c r="D51">
+        <v>193301</v>
+      </c>
       <c r="E51">
-        <v>193301</v>
-      </c>
-      <c r="G51">
         <v>197096</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43949</v>
       </c>
@@ -3896,14 +5663,14 @@
       <c r="C52">
         <v>125629</v>
       </c>
+      <c r="D52">
+        <v>195715</v>
+      </c>
       <c r="E52">
-        <v>195715</v>
-      </c>
-      <c r="G52">
         <v>199470</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43950</v>
       </c>
@@ -3911,7 +5678,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43951</v>
       </c>
@@ -3919,7 +5686,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43952</v>
       </c>
@@ -3929,14 +5696,14 @@
       <c r="C55">
         <v>125955</v>
       </c>
+      <c r="D55">
+        <v>201077</v>
+      </c>
       <c r="E55">
-        <v>201077</v>
-      </c>
-      <c r="G55">
         <v>204576</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43953</v>
       </c>
@@ -3944,7 +5711,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43954</v>
       </c>
@@ -3952,7 +5719,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43955</v>
       </c>
@@ -3960,33 +5727,24 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.66666666666666696</v>
-      </c>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3994,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470FBF9-3B6D-4E63-A15D-987742D236D5}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4009,66 +5767,66 @@
   <sheetData>
     <row r="1" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="22">
+        <v>2108</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="23">
+        <v>1575</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23">
+        <v>-1081.5999999999999</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>6503.3</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="23" t="s">
+      <c r="T1" s="22">
+        <v>30</v>
+      </c>
+      <c r="U1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24">
-        <v>2108</v>
-      </c>
-      <c r="K1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25">
-        <v>1575</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="25">
-        <v>-1081.5999999999999</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="25">
-        <v>6503.3</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="24">
-        <v>30</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="23">
         <v>10</v>
       </c>
-      <c r="W1" s="25">
-        <v>10</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>9</v>
+      <c r="X1" s="23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -4081,22 +5839,22 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="20">
+      <c r="K2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="18">
         <f>(Q1-O1)/L1</f>
         <v>4.8158095238095235</v>
       </c>
-      <c r="V2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="20">
+      <c r="V2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="18">
         <f>L2*W1</f>
         <v>48.158095238095235</v>
       </c>
-      <c r="X2" s="22" t="s">
-        <v>9</v>
+      <c r="X2" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -4122,10 +5880,10 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">

--- a/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
+++ b/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262AA22A-8C2C-4E5D-A236-75949FFA9452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE2489-B867-498F-A00E-B54ECB65777A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -93,10 +93,13 @@
     <t>cumulative incidence of cases w/ diagnosis/swab date</t>
   </si>
   <si>
-    <t>total cases reported</t>
+    <t>cumulative incidence of cases w/ symptom onset date</t>
   </si>
   <si>
-    <t>cumulative incidence of cases w/ symptom onset date</t>
+    <t>cumulative cases reported</t>
+  </si>
+  <si>
+    <t>cumulative deaths reported</t>
   </si>
 </sst>
 </file>
@@ -425,17 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -449,7 +452,8 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
@@ -458,8 +462,7 @@
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +512,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1200"/>
-              <a:t>Total cases w/ reported symptom onset or diagnosis date. </a:t>
+              <a:t>Cumulative cases recorded w/ symptom onset or diagnosis/swab date out of cumulative reported cases. </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" sz="800"/>
@@ -570,7 +573,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="002060"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -886,6 +889,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>125955</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>123955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +918,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1228,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>201077</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>205891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,14 +1256,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total cases reported</c:v>
+                  <c:v>cumulative cases reported</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1570,6 +1581,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>204576</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>209254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,7 +1602,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-100"/>
         <c:axId val="730057272"/>
         <c:axId val="730055352"/>
       </c:barChart>
@@ -1600,8 +1615,8 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1617,7 +1632,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1775,6 +1790,631 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cumulative deaths reported</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200"/>
+              <a:t>. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="800"/>
+              <a:t>Source: ISS.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISS reports summary'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative deaths reported</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISS reports summary'!$F$2:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7590</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8460</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14381</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14860</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15751</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16654</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17364</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17916</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19508</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23188</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23576</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24780</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25215</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26049</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A18-4330-BBEB-08B4253ABE59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-100"/>
+        <c:axId val="730057272"/>
+        <c:axId val="730055352"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="730057272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730055352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="730055352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730057272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3261,6 +3901,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3783,7 +4463,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3987,6 +4667,527 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -4289,13 +5490,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>46382</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>914399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>159026</xdr:rowOff>
@@ -4318,6 +5519,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349858</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3416B6-90D9-4FCD-B301-5FB9490D29E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4594,14 +5833,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:E58" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:F58" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:F58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{0FFB908C-7659-4CD2-8432-2A43ADA8C6A3}" name="cumulative incidence of cases w/ symptom onset date"/>
     <tableColumn id="4" xr3:uid="{38E7B481-A1FE-4FD4-90F3-A4C1650D179E}" name="cumulative incidence of cases w/ diagnosis/swab date"/>
-    <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="total cases reported"/>
+    <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="cumulative cases reported"/>
+    <tableColumn id="6" xr3:uid="{685DB51D-955E-4327-9E96-30C7DF229220}" name="cumulative deaths reported"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4611,7 +5851,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE3F84B0-9E13-40FB-8945-D170D5479F84}" name="Tabella1" displayName="Tabella1" ref="A1:D103" totalsRowShown="0">
   <autoFilter ref="A1:D103" xr:uid="{30C6CF1A-8735-45FE-91D3-50981F887C61}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{09017B8E-30AA-429C-B1AB-948F0E58CFCC}" name="blu bar"/>
     <tableColumn id="3" xr3:uid="{8BD48CA4-777F-4F23-8FE1-E8190553CFAF}" name="Colonna1"/>
     <tableColumn id="4" xr3:uid="{7ABC133C-83F3-4CCA-A2D9-65E59601BFED}" name="N. cases by symptom onset"/>
@@ -4883,35 +6123,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43899</v>
       </c>
@@ -4927,8 +6172,11 @@
       <c r="E2">
         <v>8342</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43900</v>
       </c>
@@ -4936,7 +6184,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43901</v>
       </c>
@@ -4944,7 +6192,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -4960,8 +6208,11 @@
       <c r="E5">
         <v>13882</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43903</v>
       </c>
@@ -4969,7 +6220,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43904</v>
       </c>
@@ -4977,7 +6228,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43905</v>
       </c>
@@ -4985,7 +6236,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43906</v>
       </c>
@@ -4993,7 +6244,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43907</v>
       </c>
@@ -5009,8 +6260,11 @@
       <c r="E10">
         <v>28293</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43908</v>
       </c>
@@ -5026,8 +6280,11 @@
       <c r="E11">
         <v>31772</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43909</v>
       </c>
@@ -5043,8 +6300,11 @@
       <c r="E12">
         <v>35731</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43910</v>
       </c>
@@ -5060,8 +6320,11 @@
       <c r="E13">
         <v>42220</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43911</v>
       </c>
@@ -5077,8 +6340,11 @@
       <c r="E14">
         <v>48452</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43912</v>
       </c>
@@ -5094,8 +6360,11 @@
       <c r="E15">
         <v>52796</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43913</v>
       </c>
@@ -5111,8 +6380,11 @@
       <c r="E16">
         <v>57989</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43914</v>
       </c>
@@ -5128,8 +6400,11 @@
       <c r="E17">
         <v>62844</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43915</v>
       </c>
@@ -5145,8 +6420,11 @@
       <c r="E18">
         <v>67814</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43916</v>
       </c>
@@ -5162,8 +6440,11 @@
       <c r="E19">
         <v>73780</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43917</v>
       </c>
@@ -5179,8 +6460,11 @@
       <c r="E20">
         <v>79968</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43918</v>
       </c>
@@ -5196,8 +6480,11 @@
       <c r="E21">
         <v>85308</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43919</v>
       </c>
@@ -5213,8 +6500,11 @@
       <c r="E22">
         <v>89967</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43920</v>
       </c>
@@ -5230,8 +6520,11 @@
       <c r="E23">
         <v>94312</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43921</v>
       </c>
@@ -5247,8 +6540,11 @@
       <c r="E24">
         <v>98716</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>10943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43922</v>
       </c>
@@ -5264,8 +6560,11 @@
       <c r="E25">
         <v>102669</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>11857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43923</v>
       </c>
@@ -5281,8 +6580,11 @@
       <c r="E26">
         <v>106399</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43924</v>
       </c>
@@ -5298,8 +6600,11 @@
       <c r="E27">
         <v>112401</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>13241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43925</v>
       </c>
@@ -5315,8 +6620,11 @@
       <c r="E28">
         <v>117050</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>13828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43926</v>
       </c>
@@ -5332,8 +6640,11 @@
       <c r="E29">
         <v>120290</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>14381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43927</v>
       </c>
@@ -5349,8 +6660,11 @@
       <c r="E30">
         <v>124527</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>14860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43928</v>
       </c>
@@ -5366,8 +6680,11 @@
       <c r="E31">
         <v>127790</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>15751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43929</v>
       </c>
@@ -5383,8 +6700,11 @@
       <c r="E32">
         <v>131751</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>16162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43930</v>
       </c>
@@ -5400,8 +6720,11 @@
       <c r="E33">
         <v>136110</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>16654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43931</v>
       </c>
@@ -5417,8 +6740,11 @@
       <c r="E34">
         <v>139377</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>17364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43932</v>
       </c>
@@ -5434,8 +6760,11 @@
       <c r="E35">
         <v>143199</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>17916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43933</v>
       </c>
@@ -5451,8 +6780,11 @@
       <c r="E36">
         <v>146321</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>18366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43934</v>
       </c>
@@ -5468,8 +6800,11 @@
       <c r="E37">
         <v>150189</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>18641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43935</v>
       </c>
@@ -5477,7 +6812,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43936</v>
       </c>
@@ -5493,8 +6828,11 @@
       <c r="E39">
         <v>155467</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>19508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43937</v>
       </c>
@@ -5510,8 +6848,11 @@
       <c r="E40">
         <v>159107</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>19996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43938</v>
       </c>
@@ -5527,8 +6868,11 @@
       <c r="E41">
         <v>162004</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>20531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43939</v>
       </c>
@@ -5536,7 +6880,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43940</v>
       </c>
@@ -5544,7 +6888,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43941</v>
       </c>
@@ -5560,8 +6904,11 @@
       <c r="E44">
         <v>169325</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>21551</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43942</v>
       </c>
@@ -5569,7 +6916,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43943</v>
       </c>
@@ -5585,8 +6932,11 @@
       <c r="E46">
         <v>173730</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>22586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43944</v>
       </c>
@@ -5602,8 +6952,11 @@
       <c r="E47">
         <v>177143</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>23188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43945</v>
       </c>
@@ -5619,8 +6972,11 @@
       <c r="E48">
         <v>183269</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>23576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43946</v>
       </c>
@@ -5628,7 +6984,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43947</v>
       </c>
@@ -5636,7 +6992,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43948</v>
       </c>
@@ -5652,8 +7008,11 @@
       <c r="E51">
         <v>197096</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>24780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43949</v>
       </c>
@@ -5669,8 +7028,11 @@
       <c r="E52">
         <v>199470</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>25215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43950</v>
       </c>
@@ -5678,7 +7040,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43951</v>
       </c>
@@ -5686,7 +7048,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43952</v>
       </c>
@@ -5702,8 +7064,11 @@
       <c r="E55">
         <v>204576</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>26049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43953</v>
       </c>
@@ -5711,7 +7076,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43954</v>
       </c>
@@ -5719,23 +7084,35 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43955</v>
       </c>
       <c r="B58" s="2">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>123955</v>
+      </c>
+      <c r="D58">
+        <v>205891</v>
+      </c>
+      <c r="E58">
+        <v>209254</v>
+      </c>
+      <c r="F58">
+        <v>26892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
@@ -5778,12 +7155,12 @@
       <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="21" t="s">
         <v>3</v>
       </c>

--- a/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
+++ b/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE2489-B867-498F-A00E-B54ECB65777A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664CE1E9-44A6-4151-96C8-6759C5355D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISS reports summary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>cumulative deaths reported</t>
+  </si>
+  <si>
+    <t>day of week</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -440,6 +443,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
@@ -450,16 +454,20 @@
     <cellStyle name="Nota" xfId="5" builtinId="10"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -562,7 +570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ISS reports summary'!$C$1</c:f>
+              <c:f>'ISS reports summary'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -583,9 +591,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:f>'ISS reports summary'!$B$2:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
@@ -763,7 +771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ISS reports summary'!$C$1:$C$58</c:f>
+              <c:f>'ISS reports summary'!$D$1:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -775,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13601</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16181</c:v>
@@ -907,7 +918,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ISS reports summary'!$D$1</c:f>
+              <c:f>'ISS reports summary'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -928,9 +939,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:f>'ISS reports summary'!$B$2:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
@@ -1108,7 +1119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ISS reports summary'!$D$1:$D$58</c:f>
+              <c:f>'ISS reports summary'!$E$1:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -1120,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24346</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>27224</c:v>
@@ -1252,7 +1266,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ISS reports summary'!$E$1</c:f>
+              <c:f>'ISS reports summary'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1275,9 +1289,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:f>'ISS reports summary'!$B$2:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
@@ -1455,7 +1469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ISS reports summary'!$E$1:$E$58</c:f>
+              <c:f>'ISS reports summary'!$F$1:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
@@ -1467,6 +1481,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25028</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>28293</c:v>
@@ -1880,7 +1897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ISS reports summary'!$F$1</c:f>
+              <c:f>'ISS reports summary'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1903,9 +1920,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'ISS reports summary'!$A$2:$A$58</c:f>
+              <c:f>'ISS reports summary'!$B$2:$B$58</c:f>
               <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
@@ -2083,7 +2100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ISS reports summary'!$F$2:$F$58</c:f>
+              <c:f>'ISS reports summary'!$G$2:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
@@ -2092,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1647</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2003</c:v>
@@ -5490,13 +5510,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>46382</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>914399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>159026</xdr:rowOff>
@@ -5526,13 +5546,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>349858</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>6627</xdr:rowOff>
@@ -5833,11 +5853,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:F58" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:F58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:G58" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{50975FC8-ACF4-45F9-8F56-602A6B9C8202}" name="day of week" dataDxfId="0">
+      <calculatedColumnFormula>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{0FFB908C-7659-4CD2-8432-2A43ADA8C6A3}" name="cumulative incidence of cases w/ symptom onset date"/>
     <tableColumn id="4" xr3:uid="{38E7B481-A1FE-4FD4-90F3-A4C1650D179E}" name="cumulative incidence of cases w/ diagnosis/swab date"/>
     <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="cumulative cases reported"/>
@@ -5851,7 +5874,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE3F84B0-9E13-40FB-8945-D170D5479F84}" name="Tabella1" displayName="Tabella1" ref="A1:D103" totalsRowShown="0">
   <autoFilter ref="A1:D103" xr:uid="{30C6CF1A-8735-45FE-91D3-50981F887C61}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{09017B8E-30AA-429C-B1AB-948F0E58CFCC}" name="blu bar"/>
     <tableColumn id="3" xr3:uid="{8BD48CA4-777F-4F23-8FE1-E8190553CFAF}" name="Colonna1"/>
     <tableColumn id="4" xr3:uid="{7ABC133C-83F3-4CCA-A2D9-65E59601BFED}" name="N. cases by symptom onset"/>
@@ -6123,998 +6146,1242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B2" s="29">
         <v>43899</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4555</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7812</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8342</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B3" s="29">
         <v>43900</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B4" s="29">
         <v>43901</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B5" s="29">
         <v>43902</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8331</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>13323</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13882</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>803</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B6" s="29">
         <v>43903</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B7" s="29">
         <v>43904</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B8" s="29">
         <v>43905</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B9" s="29">
         <v>43906</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="D9">
+        <v>13601</v>
+      </c>
+      <c r="E9">
+        <v>24346</v>
+      </c>
+      <c r="F9">
+        <v>25028</v>
+      </c>
+      <c r="G9">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B10" s="29">
         <v>43907</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>16181</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>27224</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>28293</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B11" s="29">
         <v>43908</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>17389</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>30722</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31772</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2390</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B12" s="29">
         <v>43909</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>18966</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>34927</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35731</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3047</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B13" s="29">
         <v>43910</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>21157</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>39981</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>42220</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B14" s="29">
         <v>43911</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>22993</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>46584</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>48452</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3770</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B15" s="29">
         <v>43912</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>28330</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>50246</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>52796</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4465</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B16" s="29">
         <v>43913</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>29603</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>55059</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>57989</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5019</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B17" s="29">
         <v>43914</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>31959</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>59203</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>62844</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5542</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B18" s="29">
         <v>43915</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>34371</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>64130</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>67814</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B19" s="29">
         <v>43916</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>37403</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>70418</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>73780</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6801</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B20" s="29">
         <v>43917</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>44204</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>76714</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>79968</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7590</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B21" s="29">
         <v>43918</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>46704</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>82510</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>85308</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8460</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B22" s="29">
         <v>43919</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>48525</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>87038</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>89967</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9220</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B23" s="29">
         <v>43920</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>0.75</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>53084</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>90972</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>94312</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10026</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B24" s="29">
         <v>43921</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>55280</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>95077</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>98716</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10943</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B25" s="29">
         <v>43922</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>57951</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>98500</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>102669</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11857</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B26" s="29">
         <v>43923</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>60313</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>101994</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>106399</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>12550</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B27" s="29">
         <v>43924</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>63084</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>107342</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>112401</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>13241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B28" s="29">
         <v>43925</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>65145</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>111692</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>117050</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>13828</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B29" s="29">
         <v>43926</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>70012</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>116363</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>120290</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14381</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B30" s="29">
         <v>43927</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>71354</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>120570</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>124527</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14860</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B31" s="29">
         <v>43928</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>73040</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>123801</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>127790</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>15751</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B32" s="29">
         <v>43929</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>75897</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>127642</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>131751</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>16162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B33" s="29">
         <v>43930</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>77927</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>131995</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>136110</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>16654</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B34" s="29">
         <v>43931</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>77878</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>133700</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>139377</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>17364</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B35" s="29">
         <v>43932</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>81792</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>139347</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>143199</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>17916</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B36" s="29">
         <v>43933</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>82648</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>142425</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>146321</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>18366</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B37" s="29">
         <v>43934</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>83817</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>146233</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>150189</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>18641</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B38" s="29">
         <v>43935</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B39" s="29">
         <v>43936</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>86392</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>151212</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>155467</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>19508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B40" s="29">
         <v>43937</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>87954</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>155133</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>159107</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>19996</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B41" s="29">
         <v>43938</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>90191</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>157904</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>162004</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>20531</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B42" s="29">
         <v>43939</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B43" s="29">
         <v>43940</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B44" s="29">
         <v>43941</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>93188</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>165282</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>169325</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>21551</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B45" s="29">
         <v>43942</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B46" s="29">
         <v>43943</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>95815</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>169779</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>173730</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>22586</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B47" s="29">
         <v>43944</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>97568</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>173325</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>177143</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>23188</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B48" s="29">
         <v>43945</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>109766</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>179451</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>183269</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>23576</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B49" s="29">
         <v>43946</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B50" s="29">
         <v>43947</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B51" s="29">
         <v>43948</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>118063</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>193301</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>197096</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>24780</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="B52" s="29">
         <v>43949</v>
       </c>
-      <c r="B52" s="2">
+      <c r="C52" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>125629</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>195715</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>199470</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>25215</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="B53" s="29">
         <v>43950</v>
       </c>
-      <c r="B53" s="2">
+      <c r="C53" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="B54" s="29">
         <v>43951</v>
       </c>
-      <c r="B54" s="2">
+      <c r="C54" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="B55" s="29">
         <v>43952</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C55" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>125955</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>201077</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>204576</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>26049</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="B56" s="29">
         <v>43953</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C56" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B57" s="29">
         <v>43954</v>
       </c>
-      <c r="B57" s="2">
+      <c r="C57" s="2">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="str">
+        <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B58" s="29">
         <v>43955</v>
       </c>
-      <c r="B58" s="2">
+      <c r="C58" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>123955</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>205891</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>209254</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>26892</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7129,7 +7396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470FBF9-3B6D-4E63-A15D-987742D236D5}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>

--- a/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
+++ b/Italy cases by symptom onset date from 24-jan to 16-apr 2020 (source ISS).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664CE1E9-44A6-4151-96C8-6759C5355D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6CBE0-858C-4DCF-93E7-480F9B37E44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISS reports summary" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,13 @@
     <t>cumulative incidence of cases w/ symptom onset date</t>
   </si>
   <si>
-    <t>cumulative cases reported</t>
+    <t>day of week</t>
   </si>
   <si>
-    <t>cumulative deaths reported</t>
+    <t>cumulative reported deaths</t>
   </si>
   <si>
-    <t>day of week</t>
+    <t>cumulative reported cases</t>
   </si>
 </sst>
 </file>
@@ -437,13 +437,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
@@ -457,17 +457,17 @@
   <dxfs count="5">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd\-mmm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -520,7 +520,45 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1200"/>
-              <a:t>Cumulative cases recorded w/ symptom onset or diagnosis/swab date out of cumulative reported cases. </a:t>
+              <a:t>Cumulative cases w/ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>symptom onset</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200"/>
+              <a:t> or </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>diagnosis/swab</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200"/>
+              <a:t> date and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>cumulative reported cases</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1200"/>
+              <a:t>. </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" sz="800"/>
@@ -1270,7 +1308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cumulative cases reported</c:v>
+                  <c:v>cumulative reported cases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1619,8 +1657,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-100"/>
+        <c:gapWidth val="0"/>
         <c:axId val="730057272"/>
         <c:axId val="730055352"/>
       </c:barChart>
@@ -1843,7 +1880,7 @@
               <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>cumulative deaths reported</a:t>
+              <a:t>cumulative reported deaths</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" sz="1200"/>
@@ -1901,16 +1938,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cumulative deaths reported</c:v>
+                  <c:v>cumulative reported deaths</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2247,8 +2282,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-100"/>
+        <c:gapWidth val="20"/>
         <c:axId val="730057272"/>
         <c:axId val="730055352"/>
       </c:barChart>
@@ -3115,7 +3149,7 @@
           <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3678,8 +3712,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="25"/>
         <c:axId val="396116976"/>
         <c:axId val="372969904"/>
       </c:barChart>
@@ -5856,15 +5889,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82618021-B866-49E5-BE30-0098C74A873D}" name="Tabella2" displayName="Tabella2" ref="A1:G58" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G58" xr:uid="{E00D1741-FA5A-46AA-8DA1-3263CE131748}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{50975FC8-ACF4-45F9-8F56-602A6B9C8202}" name="day of week" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{50975FC8-ACF4-45F9-8F56-602A6B9C8202}" name="day of week" dataDxfId="3">
       <calculatedColumnFormula>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{489269BA-B00A-4BCA-867F-603F07B4A1BA}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{30288EF8-2CAC-4C44-8A0F-77A69CC1E64A}" name="time" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{0FFB908C-7659-4CD2-8432-2A43ADA8C6A3}" name="cumulative incidence of cases w/ symptom onset date"/>
     <tableColumn id="4" xr3:uid="{38E7B481-A1FE-4FD4-90F3-A4C1650D179E}" name="cumulative incidence of cases w/ diagnosis/swab date"/>
-    <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="cumulative cases reported"/>
-    <tableColumn id="6" xr3:uid="{685DB51D-955E-4327-9E96-30C7DF229220}" name="cumulative deaths reported"/>
+    <tableColumn id="5" xr3:uid="{6B30DF0A-C606-4438-9413-2ACF496A9033}" name="cumulative reported cases"/>
+    <tableColumn id="6" xr3:uid="{685DB51D-955E-4327-9E96-30C7DF229220}" name="cumulative reported deaths"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5874,7 +5907,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE3F84B0-9E13-40FB-8945-D170D5479F84}" name="Tabella1" displayName="Tabella1" ref="A1:D103" totalsRowShown="0">
   <autoFilter ref="A1:D103" xr:uid="{30C6CF1A-8735-45FE-91D3-50981F887C61}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{85B46AC1-744C-4A75-9973-3962CA1A819C}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{09017B8E-30AA-429C-B1AB-948F0E58CFCC}" name="blu bar"/>
     <tableColumn id="3" xr3:uid="{8BD48CA4-777F-4F23-8FE1-E8190553CFAF}" name="Colonna1"/>
     <tableColumn id="4" xr3:uid="{7ABC133C-83F3-4CCA-A2D9-65E59601BFED}" name="N. cases by symptom onset"/>
@@ -6148,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1048576"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6162,7 +6195,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -6177,7 +6210,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>21</v>
@@ -6188,7 +6221,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>43899</v>
       </c>
       <c r="C2" s="2">
@@ -6212,7 +6245,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>43900</v>
       </c>
       <c r="C3" s="2">
@@ -6224,7 +6257,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>43901</v>
       </c>
       <c r="C4" s="2">
@@ -6236,7 +6269,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>43902</v>
       </c>
       <c r="C5" s="2">
@@ -6260,7 +6293,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>43903</v>
       </c>
       <c r="C6" s="2">
@@ -6272,7 +6305,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>43904</v>
       </c>
       <c r="C7" s="2">
@@ -6284,7 +6317,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>43905</v>
       </c>
       <c r="C8" s="2">
@@ -6296,7 +6329,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>43906</v>
       </c>
       <c r="C9" s="2">
@@ -6320,7 +6353,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>43907</v>
       </c>
       <c r="C10" s="2">
@@ -6344,7 +6377,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>43908</v>
       </c>
       <c r="C11" s="2">
@@ -6368,7 +6401,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>43909</v>
       </c>
       <c r="C12" s="2">
@@ -6392,7 +6425,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>43910</v>
       </c>
       <c r="C13" s="2">
@@ -6416,7 +6449,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>43911</v>
       </c>
       <c r="C14" s="2">
@@ -6440,7 +6473,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="27">
         <v>43912</v>
       </c>
       <c r="C15" s="2">
@@ -6464,7 +6497,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <v>43913</v>
       </c>
       <c r="C16" s="2">
@@ -6488,7 +6521,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="27">
         <v>43914</v>
       </c>
       <c r="C17" s="2">
@@ -6512,7 +6545,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>43915</v>
       </c>
       <c r="C18" s="2">
@@ -6536,7 +6569,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="27">
         <v>43916</v>
       </c>
       <c r="C19" s="2">
@@ -6560,7 +6593,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="27">
         <v>43917</v>
       </c>
       <c r="C20" s="2">
@@ -6584,7 +6617,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="27">
         <v>43918</v>
       </c>
       <c r="C21" s="2">
@@ -6608,7 +6641,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <v>43919</v>
       </c>
       <c r="C22" s="2">
@@ -6632,7 +6665,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <v>43920</v>
       </c>
       <c r="C23" s="2">
@@ -6656,7 +6689,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="27">
         <v>43921</v>
       </c>
       <c r="C24" s="2">
@@ -6680,7 +6713,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>43922</v>
       </c>
       <c r="C25" s="2">
@@ -6704,7 +6737,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="27">
         <v>43923</v>
       </c>
       <c r="C26" s="2">
@@ -6728,7 +6761,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="27">
         <v>43924</v>
       </c>
       <c r="C27" s="2">
@@ -6752,7 +6785,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>43925</v>
       </c>
       <c r="C28" s="2">
@@ -6776,7 +6809,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>43926</v>
       </c>
       <c r="C29" s="2">
@@ -6800,7 +6833,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <v>43927</v>
       </c>
       <c r="C30" s="2">
@@ -6824,7 +6857,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="27">
         <v>43928</v>
       </c>
       <c r="C31" s="2">
@@ -6848,7 +6881,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <v>43929</v>
       </c>
       <c r="C32" s="2">
@@ -6872,7 +6905,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="27">
         <v>43930</v>
       </c>
       <c r="C33" s="2">
@@ -6896,7 +6929,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="27">
         <v>43931</v>
       </c>
       <c r="C34" s="2">
@@ -6920,7 +6953,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="27">
         <v>43932</v>
       </c>
       <c r="C35" s="2">
@@ -6944,7 +6977,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="27">
         <v>43933</v>
       </c>
       <c r="C36" s="2">
@@ -6968,7 +7001,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="27">
         <v>43934</v>
       </c>
       <c r="C37" s="2">
@@ -6992,7 +7025,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="27">
         <v>43935</v>
       </c>
       <c r="C38" s="2">
@@ -7004,7 +7037,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="27">
         <v>43936</v>
       </c>
       <c r="C39" s="2">
@@ -7028,7 +7061,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="27">
         <v>43937</v>
       </c>
       <c r="C40" s="2">
@@ -7052,7 +7085,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="27">
         <v>43938</v>
       </c>
       <c r="C41" s="2">
@@ -7076,7 +7109,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="27">
         <v>43939</v>
       </c>
       <c r="C42" s="2">
@@ -7088,7 +7121,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="27">
         <v>43940</v>
       </c>
       <c r="C43" s="2">
@@ -7100,7 +7133,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="27">
         <v>43941</v>
       </c>
       <c r="C44" s="2">
@@ -7124,7 +7157,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="27">
         <v>43942</v>
       </c>
       <c r="C45" s="2">
@@ -7136,7 +7169,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="27">
         <v>43943</v>
       </c>
       <c r="C46" s="2">
@@ -7160,7 +7193,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="27">
         <v>43944</v>
       </c>
       <c r="C47" s="2">
@@ -7184,7 +7217,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="27">
         <v>43945</v>
       </c>
       <c r="C48" s="2">
@@ -7208,7 +7241,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="27">
         <v>43946</v>
       </c>
       <c r="C49" s="2">
@@ -7220,7 +7253,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>43947</v>
       </c>
       <c r="C50" s="2">
@@ -7232,7 +7265,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="27">
         <v>43948</v>
       </c>
       <c r="C51" s="2">
@@ -7256,7 +7289,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Tue</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="27">
         <v>43949</v>
       </c>
       <c r="C52" s="2">
@@ -7280,7 +7313,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="27">
         <v>43950</v>
       </c>
       <c r="C53" s="2">
@@ -7292,7 +7325,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Thu</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="27">
         <v>43951</v>
       </c>
       <c r="C54" s="2">
@@ -7304,7 +7337,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Fri</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="27">
         <v>43952</v>
       </c>
       <c r="C55" s="2">
@@ -7328,7 +7361,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sat</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="27">
         <v>43953</v>
       </c>
       <c r="C56" s="2">
@@ -7340,7 +7373,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Sun</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="27">
         <v>43954</v>
       </c>
       <c r="C57" s="2">
@@ -7352,7 +7385,7 @@
         <f>CHOOSE(WEEKDAY(Tabella2[[#This Row],[date]]),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
         <v>Mon</v>
       </c>
-      <c r="B58" s="29">
+      <c r="B58" s="27">
         <v>43955</v>
       </c>
       <c r="C58" s="2">
@@ -7396,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470FBF9-3B6D-4E63-A15D-987742D236D5}">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7422,12 +7455,12 @@
       <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
